--- a/5-FuncoesMercadoTrabalho/41. Função SEERRO - Procurar em Base - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/41. Função SEERRO - Procurar em Base - Material(1).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 8 - Funções Mercado de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFA0E6-0E35-49C9-AA08-2818B282F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39819A58-9EFF-465D-9FE8-E3F867A6FC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="SEERRO" sheetId="2" r:id="rId1"/>
-    <sheet name="CODIGO" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="CODIGO" sheetId="3" r:id="rId2"/>
     <sheet name="PROCH" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1098">
   <si>
     <t>Nome</t>
   </si>
@@ -3282,6 +3282,54 @@
   </si>
   <si>
     <t>COD</t>
+  </si>
+  <si>
+    <t>Apelido</t>
+  </si>
+  <si>
+    <t>Pepa</t>
+  </si>
+  <si>
+    <t>Cami</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>Mandis</t>
+  </si>
+  <si>
+    <t>Sergin</t>
+  </si>
+  <si>
+    <t>Fê</t>
+  </si>
+  <si>
+    <t>Caiu</t>
+  </si>
+  <si>
+    <t>Lala</t>
+  </si>
+  <si>
+    <t>Tah</t>
+  </si>
+  <si>
+    <t>Ju</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Jao</t>
+  </si>
+  <si>
+    <t>Filipe</t>
   </si>
 </sst>
 </file>
@@ -3433,9 +3481,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3473,7 +3521,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3579,7 +3627,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3721,7 +3769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3729,242 +3777,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37263547-D7E7-4AC6-B262-BC90CCAE7898}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>11555</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>23113</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5">
-        <f>IFERROR(VLOOKUP(F3,A:D,4,0),"Não encontrado")</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(G3,A:E,4,0),"Não encontrado")</f>
+        <v>Feminino</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>2585</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>32635</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IFERROR(VLOOKUP(G5,A1:E15,5,0),IFERROR(VLOOKUP(G5,B1:E15,4,0),"Não Encontrado"))</f>
+        <v>Não Encontrado</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>22529</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>33740</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>44566</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>16756</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>24899</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>25086</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>6318</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>15710</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>23626</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Não encontrado"</formula>
     </cfRule>
@@ -3977,15 +4079,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19B20CA-2351-4EBE-9519-404D36C01D57}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="12.5546875" customWidth="1"/>
+    <col min="1" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -4011,7 +4115,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4031,14 +4135,14 @@
         <v>1070</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="I2" s="12" t="str">
-        <f>IFERROR(VLOOKUP(H2,B:F,5,0),IFERROR(VLOOKUP(H2,C:F,4,0),IFERROR(VLOOKUP(H2,D:F,3,0),IFERROR(VLOOKUP(H2,E:F,2,0),"Não encontrado"))))</f>
-        <v>Microsoft</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IFERROR(VLOOKUP(H2,A1:F208,6,0),IFERROR(VLOOKUP(H2,B1:F208,5,0),IFERROR(VLOOKUP(H2,C1:F208,4,0),IFERROR(VLOOKUP(H2,D1:F208,3,0),IFERROR(VLOOKUP(H2,E1:F208,2,0),"Não Encontrado")))))</f>
+        <v>Taurus</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4058,7 +4162,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4078,7 +4182,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4098,7 +4202,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4118,7 +4222,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4138,7 +4242,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4158,7 +4262,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -4178,7 +4282,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -4198,7 +4302,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4218,7 +4322,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4238,7 +4342,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4258,7 +4362,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -4278,7 +4382,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -4298,7 +4402,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -4318,7 +4422,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4338,7 +4442,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -4358,7 +4462,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4378,7 +4482,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -4398,7 +4502,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -4418,7 +4522,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4438,7 +4542,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -4458,7 +4562,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -4478,7 +4582,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -4498,7 +4602,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -4518,7 +4622,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -4538,7 +4642,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -4558,7 +4662,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4578,7 +4682,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -4598,7 +4702,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4618,7 +4722,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -4638,7 +4742,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4658,7 +4762,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4678,7 +4782,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -4698,7 +4802,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -4718,7 +4822,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -4738,7 +4842,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -4758,7 +4862,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4778,7 +4882,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4798,7 +4902,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4818,7 +4922,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4838,7 +4942,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4858,7 +4962,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -4878,7 +4982,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -4898,7 +5002,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4918,7 +5022,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -4938,7 +5042,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -4958,7 +5062,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -4978,7 +5082,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -4998,7 +5102,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -5018,7 +5122,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -5038,7 +5142,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -5058,7 +5162,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -5078,7 +5182,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -5098,7 +5202,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -5118,7 +5222,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -5138,7 +5242,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -5158,7 +5262,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -5178,7 +5282,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -5198,7 +5302,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -5218,7 +5322,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -5238,7 +5342,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -5258,7 +5362,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -5278,7 +5382,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -5298,7 +5402,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -5318,7 +5422,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -5338,7 +5442,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -5358,7 +5462,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -5378,7 +5482,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -5398,7 +5502,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -5418,7 +5522,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -5438,7 +5542,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -5458,7 +5562,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -5478,7 +5582,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -5498,7 +5602,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -5518,7 +5622,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -5538,7 +5642,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -5558,7 +5662,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -5578,7 +5682,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -5598,7 +5702,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -5618,7 +5722,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -5638,7 +5742,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -5658,7 +5762,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -5678,7 +5782,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -5698,7 +5802,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -5718,7 +5822,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -5738,7 +5842,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -5758,7 +5862,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>114</v>
       </c>
@@ -5778,7 +5882,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -5798,7 +5902,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -5818,7 +5922,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -5838,7 +5942,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -5858,7 +5962,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -5878,7 +5982,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>120</v>
       </c>
@@ -5898,7 +6002,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -5918,7 +6022,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -5938,7 +6042,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -5958,7 +6062,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -5978,7 +6082,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -5998,7 +6102,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -6018,7 +6122,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -6038,7 +6142,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -6058,7 +6162,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -6078,7 +6182,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>130</v>
       </c>
@@ -6098,7 +6202,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>131</v>
       </c>
@@ -6118,7 +6222,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>132</v>
       </c>
@@ -6138,7 +6242,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>133</v>
       </c>
@@ -6158,7 +6262,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>134</v>
       </c>
@@ -6178,7 +6282,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>135</v>
       </c>
@@ -6198,7 +6302,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>136</v>
       </c>
@@ -6218,7 +6322,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>137</v>
       </c>
@@ -6238,7 +6342,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -6258,7 +6362,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>139</v>
       </c>
@@ -6278,7 +6382,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>140</v>
       </c>
@@ -6298,7 +6402,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>141</v>
       </c>
@@ -6318,7 +6422,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>142</v>
       </c>
@@ -6338,7 +6442,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>143</v>
       </c>
@@ -6358,7 +6462,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>144</v>
       </c>
@@ -6378,7 +6482,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>145</v>
       </c>
@@ -6398,7 +6502,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>146</v>
       </c>
@@ -6418,7 +6522,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>147</v>
       </c>
@@ -6438,7 +6542,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>148</v>
       </c>
@@ -6458,7 +6562,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -6478,7 +6582,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>150</v>
       </c>
@@ -6498,7 +6602,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>151</v>
       </c>
@@ -6518,7 +6622,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -6538,7 +6642,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>153</v>
       </c>
@@ -6558,7 +6662,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>154</v>
       </c>
@@ -6578,7 +6682,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>155</v>
       </c>
@@ -6598,7 +6702,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>156</v>
       </c>
@@ -6618,7 +6722,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>157</v>
       </c>
@@ -6638,7 +6742,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>158</v>
       </c>
@@ -6658,7 +6762,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>159</v>
       </c>
@@ -6678,7 +6782,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -6698,7 +6802,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>161</v>
       </c>
@@ -6718,7 +6822,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>162</v>
       </c>
@@ -6738,7 +6842,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>163</v>
       </c>
@@ -6758,7 +6862,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>164</v>
       </c>
@@ -6778,7 +6882,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>165</v>
       </c>
@@ -6798,7 +6902,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>166</v>
       </c>
@@ -6818,7 +6922,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -6838,7 +6942,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>168</v>
       </c>
@@ -6858,7 +6962,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>169</v>
       </c>
@@ -6878,7 +6982,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -6898,7 +7002,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>171</v>
       </c>
@@ -6918,7 +7022,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>172</v>
       </c>
@@ -6938,7 +7042,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>173</v>
       </c>
@@ -6958,7 +7062,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>174</v>
       </c>
@@ -6978,7 +7082,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>175</v>
       </c>
@@ -6998,7 +7102,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>176</v>
       </c>
@@ -7018,7 +7122,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>177</v>
       </c>
@@ -7038,7 +7142,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>178</v>
       </c>
@@ -7058,7 +7162,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>179</v>
       </c>
@@ -7078,7 +7182,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>180</v>
       </c>
@@ -7098,7 +7202,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>181</v>
       </c>
@@ -7118,7 +7222,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>182</v>
       </c>
@@ -7138,7 +7242,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>183</v>
       </c>
@@ -7158,7 +7262,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -7178,7 +7282,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>185</v>
       </c>
@@ -7198,7 +7302,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>186</v>
       </c>
@@ -7218,7 +7322,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -7238,7 +7342,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -7258,7 +7362,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>189</v>
       </c>
@@ -7278,7 +7382,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>190</v>
       </c>
@@ -7298,7 +7402,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>191</v>
       </c>
@@ -7318,7 +7422,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -7338,7 +7442,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>193</v>
       </c>
@@ -7358,7 +7462,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>194</v>
       </c>
@@ -7378,7 +7482,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>195</v>
       </c>
@@ -7398,7 +7502,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>196</v>
       </c>
@@ -7418,7 +7522,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>197</v>
       </c>
@@ -7438,7 +7542,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>198</v>
       </c>
@@ -7458,7 +7562,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -7478,7 +7582,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -7498,7 +7602,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>201</v>
       </c>
@@ -7518,7 +7622,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>202</v>
       </c>
@@ -7538,7 +7642,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>203</v>
       </c>
@@ -7558,7 +7662,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -7578,7 +7682,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>205</v>
       </c>
@@ -7598,7 +7702,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>206</v>
       </c>
@@ -7618,7 +7722,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>207</v>
       </c>
@@ -7638,7 +7742,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>208</v>
       </c>
@@ -7658,7 +7762,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>209</v>
       </c>
@@ -7678,7 +7782,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>210</v>
       </c>
@@ -7698,7 +7802,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>211</v>
       </c>
@@ -7718,7 +7822,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>212</v>
       </c>
@@ -7738,7 +7842,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>213</v>
       </c>
@@ -7758,7 +7862,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>214</v>
       </c>
@@ -7778,7 +7882,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>215</v>
       </c>
@@ -7798,7 +7902,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>216</v>
       </c>
@@ -7818,7 +7922,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>217</v>
       </c>
@@ -7838,7 +7942,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>218</v>
       </c>
@@ -7858,7 +7962,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>219</v>
       </c>
@@ -7878,7 +7982,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>220</v>
       </c>
@@ -7898,7 +8002,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>221</v>
       </c>
@@ -7918,7 +8022,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>222</v>
       </c>
@@ -7938,7 +8042,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>223</v>
       </c>
@@ -7958,7 +8062,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>224</v>
       </c>
@@ -7978,7 +8082,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>225</v>
       </c>
@@ -7998,7 +8102,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>226</v>
       </c>
@@ -8018,7 +8122,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>227</v>
       </c>
@@ -8038,7 +8142,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>228</v>
       </c>
@@ -8058,7 +8162,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>229</v>
       </c>
@@ -8078,7 +8182,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>230</v>
       </c>
@@ -8098,7 +8202,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>231</v>
       </c>
@@ -8118,7 +8222,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>232</v>
       </c>
@@ -8138,7 +8242,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>233</v>
       </c>
@@ -8168,19 +8272,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEF772-DFD0-4036-8B65-DBF82BF00CE4}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -8209,7 +8313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
@@ -8238,7 +8342,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -8267,7 +8371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -8296,7 +8400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -8328,7 +8432,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
@@ -8336,7 +8440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -8345,7 +8449,7 @@
         <v>Preta</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
@@ -8353,7 +8457,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
